--- a/Design/DataTable/MapGimmickObstacle.xlsx
+++ b/Design/DataTable/MapGimmickObstacle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\백업파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D5742A-33CF-411C-814D-83401C922295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BACF258-E21E-445B-8E77-02822E13F38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2880" windowWidth="17280" windowHeight="8880" xr2:uid="{E8EAD26B-9D97-4FD7-BF28-7E0481519A25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8EAD26B-9D97-4FD7-BF28-7E0481519A25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -452,8 +452,8 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>B3*1.2</f>
-        <v>1.2</v>
+        <f>B3*2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -461,8 +461,8 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>B3*1.2</f>
-        <v>1.2</v>
+        <f>B4</f>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -470,8 +470,8 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>B3*1.6</f>
-        <v>1.6</v>
+        <f>B3*3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -479,8 +479,8 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>B3*1.6</f>
-        <v>1.6</v>
+        <f>B6</f>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -488,8 +488,8 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>B3*1.6</f>
-        <v>1.6</v>
+        <f>B6</f>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -497,8 +497,8 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>B3*1.6</f>
-        <v>1.6</v>
+        <f>B6</f>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -506,8 +506,8 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f>B3*2</f>
-        <v>2</v>
+        <f>B3*4</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
